--- a/data/long_bre/P24_2-Edad-long_bre.xlsx
+++ b/data/long_bre/P24_2-Edad-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +615,47 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,78</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,27</t>
+          <t>-7,51</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,83</t>
+          <t>6,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>-8,6</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-13,54%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>-27,73%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>34,88%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-36,81%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 11,8</t>
+          <t>-6,84; 13,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 8,4</t>
+          <t>-23,55; 3,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 18,18</t>
+          <t>-4,25; 17,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-33,01; 104,23</t>
+          <t>-24,38; 2,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,08; 53,21</t>
+          <t>-32,73; 120,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 139,11</t>
+          <t>-61,59; 24,35</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-18,95; 128,61</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-71,47; 22,36</t>
         </is>
       </c>
     </row>
@@ -675,37 +711,47 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,93</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,19%</t>
+          <t>-22,08</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>-11,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,97%</t>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,29%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-34,83%</t>
         </is>
       </c>
     </row>
@@ -718,32 +764,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 4,96</t>
+          <t>-20,19; 3,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 15,03</t>
+          <t>-13,24; 17,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 9,57</t>
+          <t>-15,8; 10,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 8,66</t>
+          <t>-37,99; -4,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,61; 30,48</t>
+          <t>-28,5; 5,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,14; 17,86</t>
+          <t>-21,74; 37,8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-23,0; 20,49</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-52,41; -9,22</t>
         </is>
       </c>
     </row>
@@ -751,37 +807,47 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,16</t>
+          <t>5,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,29%</t>
+          <t>30,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-7,93%</t>
+          <t>28,69%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-18,49%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>231,71%</t>
         </is>
       </c>
     </row>
@@ -794,74 +860,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 16,9</t>
+          <t>-5,63; 15,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 15,17</t>
+          <t>-5,93; 17,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 8,03</t>
+          <t>-15,27; 5,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 120,63</t>
+          <t>16,67; 44,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-38,06; 106,77</t>
+          <t>-22,73; 106,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-50,48; 66,05</t>
+          <t>-25,18; 126,04</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-57,32; 39,76</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>64,53; 684,41</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +956,94 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 8,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 11,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 10,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 106,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,67; 126,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 91,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,58</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,4%</t>
+          <t>3,6%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14,25%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>47,3%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1056,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 20,04</t>
+          <t>-7,98; 8,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 21,64</t>
+          <t>-15,94; 10,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; 9,67</t>
+          <t>-6,93; 10,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 38,04</t>
+          <t>-3,86; 15,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 44,69</t>
+          <t>-48,12; 102,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 17,38</t>
+          <t>-59,87; 106,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-32,4; 88,76</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-22,51; 215,66</t>
         </is>
       </c>
     </row>
@@ -983,37 +1099,47 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,08</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,84</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-26,16%</t>
+          <t>-3,13</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-31,21%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>12,33%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-3,78%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-5,34%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1152,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 5,24</t>
+          <t>-7,23; 22,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,5; 2,8</t>
+          <t>-7,09; 21,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 8,1</t>
+          <t>-13,19; 8,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 35,49</t>
+          <t>-22,67; 14,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-61,64; 13,72</t>
+          <t>-9,84; 44,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-37,29; 58,39</t>
+          <t>-10,79; 46,7</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-18,81; 14,79</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-32,22; 28,46</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-7,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-5,35%</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-22,16%</t>
+          <t>-30,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>-31,51%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-8,97%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1248,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,37; 6,48</t>
+          <t>-26,07; 3,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 3,92</t>
+          <t>-18,75; 4,02</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 7,2</t>
+          <t>-8,56; 8,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-50,04; 70,79</t>
+          <t>-21,35; 13,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-53,36; 33,67</t>
+          <t>-67,59; 26,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-39,06; 42,18</t>
+          <t>-59,17; 23,77</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-36,55; 70,56</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-50,78; 74,96</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1291,47 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,72%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,61%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1344,94 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,02; 8,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 19,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 7,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 14,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 40,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,34; 12,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-4,04</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-16,14%</t>
+          <t>-14,48%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>-24,15%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48,57%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1444,90 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 13,05</t>
+          <t>-13,34; 5,02</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-17,27; 4,93</t>
+          <t>-13,16; 3,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 11,52</t>
+          <t>-10,24; 7,49</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 94,3</t>
+          <t>-1,13; 14,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-49,86; 27,01</t>
+          <t>-56,25; 44,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 111,75</t>
+          <t>-56,74; 27,59</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-36,82; 43,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,05; 140,58</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>42,91%</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-3,58%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-3,18%</t>
+          <t>15,46%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,58%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-7,78%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1540,42 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 10,23</t>
+          <t>-7,54; 14,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 6,07</t>
+          <t>-1,56; 20,72</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,73; 6,86</t>
+          <t>-14,66; 4,52</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 132,48</t>
+          <t>-14,3; 6,66</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,18; 50,03</t>
+          <t>-11,15; 25,8</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-29,09; 38,6</t>
+          <t>-2,35; 43,79</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,75; 7,79</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-20,88; 11,7</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1583,47 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-7,57</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-3,49</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-10,24%</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-5,54%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>-18,09%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>31,97%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-8,71%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1636,42 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-15,43; 1,1</t>
+          <t>-9,59; 9,24</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,09; 5,79</t>
+          <t>-18,36; 3,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 4,84</t>
+          <t>-1,78; 10,8</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 1,58</t>
+          <t>-11,5; 7,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 10,46</t>
+          <t>-33,92; 59,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 7,96</t>
+          <t>-52,7; 18,17</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-10,77; 110,67</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-38,84; 43,61</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1679,47 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,74 +1732,94 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 9,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 12,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 10,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,12; 73,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 70,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 90,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>5,03</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>5,26</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>43,68%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>-2,3%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3,77%</t>
         </is>
       </c>
     </row>
@@ -1570,32 +1832,42 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 11,31</t>
+          <t>-1,08; 10,62</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 12,54</t>
+          <t>-6,94; 6,17</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 7,86</t>
+          <t>-7,62; 6,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 217,62</t>
+          <t>-7,38; 7,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 191,97</t>
+          <t>-10,03; 145,94</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-33,37; 62,88</t>
+          <t>-38,17; 51,75</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-30,46; 36,47</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-35,46; 65,14</t>
         </is>
       </c>
     </row>
@@ -1603,37 +1875,47 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-14,95</t>
+          <t>-7,57</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-10,62</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-6,95</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-18,23%</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-13,97%</t>
+          <t>-10,26%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>-7,27%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-5,0%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-8,11%</t>
         </is>
       </c>
     </row>
@@ -1646,32 +1928,42 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-24,14; -5,61</t>
+          <t>-15,7; 0,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-20,83; -0,32</t>
+          <t>-13,41; 4,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 2,69</t>
+          <t>-12,27; 5,56</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-28,58; -7,32</t>
+          <t>-15,58; 4,25</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-26,14; -0,43</t>
+          <t>-20,06; 0,67</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-21,4; 3,59</t>
+          <t>-19,71; 8,29</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-17,61; 9,43</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-21,12; 6,8</t>
         </is>
       </c>
     </row>
@@ -1679,37 +1971,47 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>9,92</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>4,99</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>103,2%</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>39,22%</t>
+          <t>19,54%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>46,17%</t>
+          <t>23,96%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>31,47%</t>
         </is>
       </c>
     </row>
@@ -1722,74 +2024,90 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,11; 16,82</t>
+          <t>-3,78; 10,27</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 13,45</t>
+          <t>-4,42; 13,09</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 13,34</t>
+          <t>-3,63; 9,49</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>7,02; 249,3</t>
+          <t>-2,58; 12,94</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 137,55</t>
+          <t>-19,1; 82,86</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 131,37</t>
+          <t>-16,76; 80,25</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-19,45; 82,54</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-14,6; 108,62</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>8,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-8,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>7,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>128,02%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>-42,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>55,81%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1802,70 +2120,94 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>1,68; 15,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 15,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>8,07; 370,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-83,03; 39,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 209,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-7,29</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-10,57</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>-9,15%</t>
+          <t>8,99</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>-0,37%</t>
+          <t>65,81%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-14,47%</t>
+          <t>58,42%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>79,44%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +2220,42 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 7,58</t>
+          <t>-0,47; 12,17</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 19,27</t>
+          <t>-1,4; 13,06</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 1,45</t>
+          <t>-7,7; 6,58</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 10,7</t>
+          <t>-0,03; 17,87</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-18,27; 33,79</t>
+          <t>-6,0; 243,86</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-28,53; 2,14</t>
+          <t>-12,96; 207,61</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-36,93; 52,29</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-2,54; 217,31</t>
         </is>
       </c>
     </row>
@@ -1911,37 +2263,47 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-16,16</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>-10,01</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>-7,07</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>-5,21%</t>
+          <t>-10,16</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>73,6%</t>
+          <t>-19,62%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>-13,2%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>-10,06%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-13,5%</t>
         </is>
       </c>
     </row>
@@ -1954,74 +2316,90 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 8,89</t>
+          <t>-25,9; -6,99</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>0,17; 17,93</t>
+          <t>-20,68; 0,71</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 12,21</t>
+          <t>-16,95; 1,88</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-67,87; 116,38</t>
+          <t>-21,19; 1,39</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 252,18</t>
+          <t>-30,47; -9,09</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 124,86</t>
+          <t>-25,66; 0,09</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-23,14; 2,6</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-26,8; 1,99</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>10,74</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>7,05</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>27,33%</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>-10,14%</t>
+          <t>114,22%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>30,0%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>53,18%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>8,67%</t>
         </is>
       </c>
     </row>
@@ -2034,32 +2412,42 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 6,48</t>
+          <t>3,54; 18,55</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 2,46</t>
+          <t>-4,28; 12,43</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,95</t>
+          <t>-0,19; 14,59</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 68,4</t>
+          <t>-6,96; 9,57</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>-32,63; 16,83</t>
+          <t>24,5; 288,72</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 37,44</t>
+          <t>-24,99; 116,46</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>-2,8; 138,17</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-41,02; 103,53</t>
         </is>
       </c>
     </row>
@@ -2067,37 +2455,47 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>-7,32%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>-7,55%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2110,70 +2508,94 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -0,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 6,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -0,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -0,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 10,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>-13,53; -0,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-5,53</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>7,77</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>117,31%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>-32,66%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>62,35%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>1,38%</t>
         </is>
       </c>
     </row>
@@ -2186,47 +2608,740 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 6,28</t>
+          <t>1,4; 14,97</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 5,35</t>
+          <t>-24,06; 4,34</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,96</t>
+          <t>-2,04; 15,6</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 41,93</t>
+          <t>-8,18; 9,83</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 31,36</t>
+          <t>7,16; 374,23</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 45,2</t>
+          <t>-79,84; 44,75</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>-12,4; 199,9</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>-50,67; 145,46</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>-6,12</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>-3,1</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>-11,32</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>-9,21</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>-7,76%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>-4,35%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>-15,62%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>-11,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>-16,5; 8,32</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>-15,37; 15,3</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 0,07</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>-22,63; 4,08</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>-19,79; 11,33</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>-19,64; 25,37</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>-27,9; 0,13</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>-27,33; 5,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>8,63</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>3,56</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>9,04</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>-11,35%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>73,23%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>23,61%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>94,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; 6,86</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>-0,72; 17,07</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 13,22</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 20,79</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>-69,83; 82,26</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>-6,02; 222,87</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>-26,66; 119,63</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>-10,84; 377,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>24,19%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>-12,99%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>16,34%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 5,93</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 1,38</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 6,09</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 6,42</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>-7,1; 60,03</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>-34,37; 9,42</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 36,9</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; 52,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>-3,96</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>-5,04</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>-8,06</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>-5,61%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>-7,64%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>-11,98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>-8,68; 1,08</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 5,98</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>-9,24; -0,71</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; -1,73</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>-11,89; 1,55</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 10,03</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>-13,74; -1,06</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>-19,36; -2,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>2,52</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>5,66</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>31,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 5,01</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>-3,07; 5,63</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 5,75</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>-0,25; 10,12</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>-17,08; 33,55</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; 32,57</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 40,85</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>-1,43; 64,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
